--- a/sheets/Binary Search Complete Revision Sheet.xlsx
+++ b/sheets/Binary Search Complete Revision Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>Questions marked with ** are most important for interviews perspective</t>
   </si>
@@ -127,12 +127,6 @@
     <t>https://www.youtube.com/watch?v=KeZGKUk1Rl0</t>
   </si>
   <si>
-    <t>Encrypt and Decrypt Strings</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Eyjlh8oFyx0</t>
-  </si>
-  <si>
     <t>Patience Sort**</t>
   </si>
   <si>
@@ -221,6 +215,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/</t>
+  </si>
+  <si>
+    <t>r**</t>
   </si>
 </sst>
 </file>
@@ -609,10 +621,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -634,10 +646,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -646,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -654,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -666,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -674,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -686,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -694,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -706,15 +718,15 @@
         <v>8</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -726,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -734,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -746,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -763,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -780,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -797,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -814,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -831,12 +843,12 @@
         <v>4</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -848,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -872,7 +884,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -890,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -907,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -919,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
@@ -927,7 +939,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -939,7 +951,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
@@ -947,7 +959,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -959,69 +971,72 @@
         <v>36</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="13">
+      <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="13">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="13">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13">
       <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>60</v>
+      <c r="B25" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1038,33 +1053,41 @@
         <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:6" ht="12.5"/>
+    <row r="28" spans="1:6" ht="12.5">
+      <c r="A28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.5"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -1083,27 +1106,31 @@
     <hyperlink ref="B18" r:id="rId14"/>
     <hyperlink ref="B19" r:id="rId15"/>
     <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId17"/>
     <hyperlink ref="B23" r:id="rId18"/>
     <hyperlink ref="B24" r:id="rId19"/>
     <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="E6" r:id="rId22"/>
-    <hyperlink ref="E3" r:id="rId23"/>
-    <hyperlink ref="E19" r:id="rId24"/>
-    <hyperlink ref="E18" r:id="rId25"/>
-    <hyperlink ref="E7" r:id="rId26"/>
-    <hyperlink ref="E4" r:id="rId27"/>
-    <hyperlink ref="B2" r:id="rId28"/>
-    <hyperlink ref="E20" r:id="rId29"/>
-    <hyperlink ref="E5" r:id="rId30"/>
+    <hyperlink ref="E6" r:id="rId21"/>
+    <hyperlink ref="E3" r:id="rId22"/>
+    <hyperlink ref="E19" r:id="rId23"/>
+    <hyperlink ref="E18" r:id="rId24"/>
+    <hyperlink ref="E7" r:id="rId25"/>
+    <hyperlink ref="E4" r:id="rId26"/>
+    <hyperlink ref="B2" r:id="rId27"/>
+    <hyperlink ref="E20" r:id="rId28"/>
+    <hyperlink ref="E5" r:id="rId29"/>
+    <hyperlink ref="E24" r:id="rId30"/>
     <hyperlink ref="E25" r:id="rId31"/>
-    <hyperlink ref="E26" r:id="rId32"/>
-    <hyperlink ref="E17" r:id="rId33"/>
-    <hyperlink ref="B17" r:id="rId34"/>
-    <hyperlink ref="E27" r:id="rId35"/>
-    <hyperlink ref="B27" r:id="rId36"/>
-    <hyperlink ref="E23" r:id="rId37"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="B17" r:id="rId33"/>
+    <hyperlink ref="E26" r:id="rId34"/>
+    <hyperlink ref="B26" r:id="rId35"/>
+    <hyperlink ref="E22" r:id="rId36"/>
+    <hyperlink ref="A28" r:id="rId37"/>
+    <hyperlink ref="A29" r:id="rId38"/>
+    <hyperlink ref="A30" r:id="rId39"/>
+    <hyperlink ref="A31" r:id="rId40"/>
+    <hyperlink ref="A32" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
